--- a/Python/스타트코딩/업무자동화/03.엑셀자동화/11번가.xlsx
+++ b/Python/스타트코딩/업무자동화/03.엑셀자동화/11번가.xlsx
@@ -21,6 +21,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <x:si>
+    <x:t>기계식 키보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게이밍 마우스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 패드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32인치 모니터</x:t>
+  </x:si>
+  <x:si>
     <x:t>가격</x:t>
   </x:si>
   <x:si>
@@ -34,18 +46,6 @@
   </x:si>
   <x:si>
     <x:t>제품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32인치 모니터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스 패드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기계식 키보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게이밍 마우스</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -117,7 +117,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -806,26 +806,26 @@
   <x:dimension ref="A1:E11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B3" activeCellId="0" sqref="B3:B3"/>
+      <x:selection activeCell="F8" activeCellId="0" sqref="F8:F8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -833,7 +833,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="1">
         <x:v>20000</x:v>
@@ -851,7 +851,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>120000</x:v>
@@ -869,7 +869,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>40000</x:v>
@@ -887,7 +887,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>40000</x:v>
@@ -905,7 +905,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>40000</x:v>
@@ -923,7 +923,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>40000</x:v>
@@ -941,7 +941,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="1">
         <x:v>120000</x:v>
@@ -959,7 +959,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="1">
         <x:v>35000</x:v>
@@ -977,7 +977,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="1">
         <x:v>20000</x:v>
@@ -995,7 +995,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="1">
         <x:v>20000</x:v>
